--- a/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,6; 15,2</t>
+          <t>6,57; 15,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 21,92</t>
+          <t>12,81; 22,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 2,06</t>
+          <t>-7,05; 2,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 0,46</t>
+          <t>-7,55; 0,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 13,73</t>
+          <t>5,14; 13,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -8,49</t>
+          <t>-16,28; -8,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,4</t>
+          <t>-0,44; 5,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 16,08</t>
+          <t>9,82; 16,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -4,84</t>
+          <t>-11,21; -5,12</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,72; 55,3</t>
+          <t>20,99; 54,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,21; 78,39</t>
+          <t>40,36; 79,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 7,12</t>
+          <t>-22,32; 8,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 1,21</t>
+          <t>-18,02; 0,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 35,65</t>
+          <t>12,17; 36,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -22,15</t>
+          <t>-39,18; -22,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 15,93</t>
+          <t>-1,18; 15,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,71; 47,48</t>
+          <t>26,27; 46,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,76; -14,74</t>
+          <t>-30,34; -14,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 18,59</t>
+          <t>12,69; 18,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 22,46</t>
+          <t>16,68; 22,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,84</t>
+          <t>-4,42; 0,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 13,14</t>
+          <t>7,09; 12,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 15,39</t>
+          <t>8,68; 15,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -3,73</t>
+          <t>-10,44; -4,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 14,97</t>
+          <t>10,56; 14,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,87; 18,05</t>
+          <t>14,14; 18,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; -1,89</t>
+          <t>-6,28; -2,22</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,64; 140,81</t>
+          <t>79,48; 139,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>104,45; 171,64</t>
+          <t>104,45; 171,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 6,36</t>
+          <t>-27,64; 6,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,22; 63,08</t>
+          <t>29,11; 60,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,2; 75,34</t>
+          <t>36,24; 72,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,4; -18,06</t>
+          <t>-43,69; -19,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,09; 86,46</t>
+          <t>54,85; 85,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,24; 104,36</t>
+          <t>71,29; 104,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -10,92</t>
+          <t>-32,41; -12,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 9,42</t>
+          <t>1,52; 9,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,22</t>
+          <t>0,45; 7,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,84; -1,75</t>
+          <t>-7,12; -1,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,97</t>
+          <t>-2,17; 7,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,9</t>
+          <t>-2,52; 6,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -3,38</t>
+          <t>-10,28; -3,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,16</t>
+          <t>0,99; 7,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,87</t>
+          <t>0,32; 6,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -3,2</t>
+          <t>-7,57; -2,97</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,92; 174,34</t>
+          <t>14,37; 169,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 143,54</t>
+          <t>4,31; 138,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,27; -26,9</t>
+          <t>-79,31; -25,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 67,94</t>
+          <t>-15,0; 73,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 60,3</t>
+          <t>-17,89; 61,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,39; -32,74</t>
+          <t>-70,41; -36,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,43; 92,65</t>
+          <t>7,86; 89,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,82; 71,11</t>
+          <t>2,91; 77,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,51; -37,83</t>
+          <t>-69,11; -35,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,39; 14,67</t>
+          <t>10,46; 14,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,15; 17,62</t>
+          <t>13,28; 17,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -2,97</t>
+          <t>-6,97; -3,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,08</t>
+          <t>1,59; 6,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,24</t>
+          <t>5,71; 10,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,05; -9,33</t>
+          <t>-13,96; -9,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,6</t>
+          <t>6,63; 9,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,91; 13,08</t>
+          <t>10,0; 13,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -6,67</t>
+          <t>-9,76; -6,68</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>54,82; 85,48</t>
+          <t>54,87; 84,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>68,48; 104,2</t>
+          <t>69,45; 100,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,02; -17,2</t>
+          <t>-36,63; -17,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 22,94</t>
+          <t>5,57; 22,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,36; 38,32</t>
+          <t>19,97; 39,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,72; -35,2</t>
+          <t>-48,32; -35,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,97; 43,34</t>
+          <t>27,9; 43,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,97; 59,35</t>
+          <t>41,91; 59,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -30,04</t>
+          <t>-41,23; -29,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,57; 15,2</t>
+          <t>6,61; 14,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,81; 22,09</t>
+          <t>12,55; 22,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 2,34</t>
+          <t>-7,2; 2,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 0,1</t>
+          <t>-7,19; 0,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 13,99</t>
+          <t>5,38; 13,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -8,49</t>
+          <t>-16,71; -8,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,21</t>
+          <t>-0,33; 5,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,82; 16,06</t>
+          <t>10,2; 16,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -5,12</t>
+          <t>-10,7; -5,12</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,99; 54,72</t>
+          <t>20,68; 53,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,36; 79,06</t>
+          <t>39,51; 80,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 8,59</t>
+          <t>-22,64; 8,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 0,27</t>
+          <t>-17,0; 1,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 36,66</t>
+          <t>13,01; 35,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,18; -22,36</t>
+          <t>-40,21; -23,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 15,08</t>
+          <t>-0,84; 16,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,27; 46,51</t>
+          <t>27,43; 48,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -14,9</t>
+          <t>-29,19; -14,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 18,3</t>
+          <t>12,81; 18,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 22,35</t>
+          <t>17,09; 22,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,91</t>
+          <t>-4,24; 0,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 12,76</t>
+          <t>6,95; 13,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 15,12</t>
+          <t>9,28; 15,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; -4,02</t>
+          <t>-10,32; -3,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,92</t>
+          <t>10,69; 14,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 18,18</t>
+          <t>14,17; 18,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; -2,22</t>
+          <t>-6,29; -2,08</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,48; 139,37</t>
+          <t>79,71; 138,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>104,45; 171,22</t>
+          <t>105,55; 171,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 6,51</t>
+          <t>-26,07; 7,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 60,99</t>
+          <t>29,68; 62,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,24; 72,3</t>
+          <t>39,1; 72,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,69; -19,05</t>
+          <t>-43,12; -18,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,85; 85,95</t>
+          <t>55,52; 87,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,29; 104,08</t>
+          <t>72,57; 105,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,41; -12,51</t>
+          <t>-32,74; -11,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,31</t>
+          <t>1,75; 9,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,52</t>
+          <t>0,58; 7,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -1,56</t>
+          <t>-7,04; -1,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 7,17</t>
+          <t>-2,42; 6,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 6,22</t>
+          <t>-2,26; 6,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -3,66</t>
+          <t>-10,18; -3,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,21</t>
+          <t>1,02; 7,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 6,18</t>
+          <t>0,57; 6,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; -2,97</t>
+          <t>-7,58; -3,02</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,37; 169,46</t>
+          <t>17,61; 169,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 138,08</t>
+          <t>5,66; 140,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,31; -25,9</t>
+          <t>-80,67; -29,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 73,82</t>
+          <t>-15,42; 72,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 61,25</t>
+          <t>-16,22; 68,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,41; -36,16</t>
+          <t>-69,58; -34,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 89,14</t>
+          <t>9,78; 90,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,91; 77,81</t>
+          <t>5,46; 78,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,11; -35,96</t>
+          <t>-69,06; -38,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,46; 14,49</t>
+          <t>10,39; 14,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,28; 17,44</t>
+          <t>13,45; 17,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -3,06</t>
+          <t>-6,77; -2,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,03</t>
+          <t>1,38; 6,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,48</t>
+          <t>5,4; 10,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,96; -9,62</t>
+          <t>-13,82; -9,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,61</t>
+          <t>6,52; 9,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,16</t>
+          <t>9,96; 13,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,76; -6,68</t>
+          <t>-9,64; -6,73</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>54,87; 84,98</t>
+          <t>55,09; 87,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,45; 100,96</t>
+          <t>70,49; 103,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,63; -17,71</t>
+          <t>-35,9; -15,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,57; 22,73</t>
+          <t>4,87; 22,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,97; 39,64</t>
+          <t>18,91; 38,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,32; -35,58</t>
+          <t>-48,42; -35,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,9; 43,13</t>
+          <t>27,54; 43,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,91; 59,18</t>
+          <t>41,98; 58,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,23; -29,84</t>
+          <t>-40,8; -29,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 14,99</t>
+          <t>6,6; 15,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 22,01</t>
+          <t>12,46; 21,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 2,38</t>
+          <t>-7,29; 2,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 0,66</t>
+          <t>-7,42; 0,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 13,91</t>
+          <t>5,6; 13,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,71; -8,9</t>
+          <t>-16,44; -8,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 5,71</t>
+          <t>-0,44; 5,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 16,54</t>
+          <t>9,96; 16,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -5,12</t>
+          <t>-10,89; -4,84</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 53,7</t>
+          <t>20,72; 55,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,51; 80,06</t>
+          <t>39,21; 78,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 8,36</t>
+          <t>-23,3; 7,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 1,83</t>
+          <t>-17,72; 1,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,01; 35,92</t>
+          <t>13,26; 35,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,21; -23,0</t>
+          <t>-39,25; -22,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 16,58</t>
+          <t>-1,12; 15,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,43; 48,61</t>
+          <t>26,71; 47,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,19; -14,99</t>
+          <t>-29,76; -14,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 18,58</t>
+          <t>13,18; 18,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 22,73</t>
+          <t>16,91; 22,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 0,89</t>
+          <t>-4,14; 0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 13,0</t>
+          <t>6,87; 13,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 15,14</t>
+          <t>9,22; 15,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -3,85</t>
+          <t>-10,09; -3,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 14,84</t>
+          <t>10,89; 14,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,17; 18,22</t>
+          <t>13,87; 18,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -2,08</t>
+          <t>-6,02; -1,89</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,71; 138,72</t>
+          <t>82,64; 140,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>105,55; 171,06</t>
+          <t>104,45; 171,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 7,05</t>
+          <t>-26,59; 6,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,68; 62,71</t>
+          <t>28,22; 63,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,1; 72,47</t>
+          <t>38,2; 75,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,12; -18,52</t>
+          <t>-42,4; -18,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,52; 87,37</t>
+          <t>56,09; 86,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,57; 105,74</t>
+          <t>71,24; 104,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,74; -11,82</t>
+          <t>-31,03; -10,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 9,16</t>
+          <t>1,54; 9,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,46</t>
+          <t>0,4; 7,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -1,75</t>
+          <t>-6,84; -1,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 6,99</t>
+          <t>-1,89; 6,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,75</t>
+          <t>-2,63; 5,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -3,5</t>
+          <t>-10,3; -3,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,18</t>
+          <t>1,33; 7,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,06</t>
+          <t>0,44; 5,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; -3,02</t>
+          <t>-7,44; -3,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,61; 169,43</t>
+          <t>16,92; 174,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 140,51</t>
+          <t>3,03; 143,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,67; -29,25</t>
+          <t>-80,27; -26,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 72,59</t>
+          <t>-15,2; 67,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 68,81</t>
+          <t>-18,65; 60,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,58; -34,69</t>
+          <t>-70,39; -32,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,78; 90,15</t>
+          <t>12,43; 92,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,46; 78,45</t>
+          <t>3,82; 71,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,06; -38,62</t>
+          <t>-68,51; -37,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,39; 14,76</t>
+          <t>10,39; 14,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,45; 17,68</t>
+          <t>13,15; 17,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -2,75</t>
+          <t>-6,93; -2,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,12</t>
+          <t>1,6; 6,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,11</t>
+          <t>5,62; 10,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -9,36</t>
+          <t>-14,05; -9,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,57</t>
+          <t>6,44; 9,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,13</t>
+          <t>9,91; 13,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -6,73</t>
+          <t>-9,9; -6,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>55,09; 87,56</t>
+          <t>54,82; 85,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>70,49; 103,38</t>
+          <t>68,48; 104,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,9; -15,79</t>
+          <t>-36,02; -17,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 22,85</t>
+          <t>5,59; 22,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,91; 38,27</t>
+          <t>19,36; 38,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,42; -35,05</t>
+          <t>-48,72; -35,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,54; 43,0</t>
+          <t>26,97; 43,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,98; 58,82</t>
+          <t>41,97; 59,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,8; -29,62</t>
+          <t>-41,58; -30,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,67</t>
+          <t>-12,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-8,55</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 2,06</t>
+          <t>-7,78; 1,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -8,49</t>
+          <t>-16,53; -8,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -4,84</t>
+          <t>-11,21; -5,28</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,43%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,58%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-23,01%</t>
+          <t>-23,99%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 7,12</t>
+          <t>-24,79; 4,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -22,15</t>
+          <t>-39,52; -23,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,76; -14,74</t>
+          <t>-30,61; -15,99</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>-4,18</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,84</t>
+          <t>-7,09; -0,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -3,73</t>
+          <t>-10,2; 2,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; -1,89</t>
+          <t>-7,05; 0,32</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,41%</t>
+          <t>-20,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-31,03%</t>
+          <t>-24,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,21%</t>
+          <t>-22,72%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 6,36</t>
+          <t>-45,38; -3,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,4; -18,06</t>
+          <t>-44,09; 14,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -10,92</t>
+          <t>-37,51; 2,59</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-5,33</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,84; -1,75</t>
+          <t>-6,92; -1,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -3,38</t>
+          <t>-10,34; -3,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -3,2</t>
+          <t>-7,51; -3,27</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-60,71%</t>
+          <t>-61,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-56,16%</t>
+          <t>-56,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-56,58%</t>
+          <t>-57,49%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,27; -26,9</t>
+          <t>-80,9; -27,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,39; -32,74</t>
+          <t>-70,87; -34,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,51; -37,83</t>
+          <t>-68,97; -38,24</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,62</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-8,41</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -2,97</t>
+          <t>-8,89; -3,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,05; -9,33</t>
+          <t>-13,9; -5,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -6,67</t>
+          <t>-10,67; -5,41</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-26,65%</t>
+          <t>-32,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-41,77%</t>
+          <t>-39,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-35,61%</t>
+          <t>-36,54%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,02; -17,2</t>
+          <t>-48,36; -22,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,72; -35,2</t>
+          <t>-48,68; -18,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -30,04</t>
+          <t>-45,41; -23,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,6; 15,2</t>
+          <t>6,86; 15,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 21,92</t>
+          <t>12,82; 22,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 1,34</t>
+          <t>-7,63; 1,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 0,46</t>
+          <t>-7,71; 0,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 13,73</t>
+          <t>5,09; 13,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,53; -8,81</t>
+          <t>-16,91; -9,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,4</t>
+          <t>-0,37; 5,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 16,08</t>
+          <t>10,13; 16,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -5,28</t>
+          <t>-11,62; -5,6</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,72; 55,3</t>
+          <t>21,58; 55,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,21; 78,39</t>
+          <t>39,73; 80,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 4,75</t>
+          <t>-24,28; 6,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 1,21</t>
+          <t>-18,34; 0,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 35,65</t>
+          <t>12,56; 35,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -23,16</t>
+          <t>-40,17; -23,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 15,93</t>
+          <t>-0,87; 15,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,71; 47,48</t>
+          <t>27,6; 47,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,61; -15,99</t>
+          <t>-31,39; -16,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 18,59</t>
+          <t>12,89; 18,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 22,46</t>
+          <t>17,25; 22,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -0,32</t>
+          <t>-6,85; -0,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 13,14</t>
+          <t>7,07; 13,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 15,39</t>
+          <t>9,1; 15,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 2,93</t>
+          <t>-10,01; 3,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 14,97</t>
+          <t>10,48; 14,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,87; 18,05</t>
+          <t>14,11; 18,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 0,32</t>
+          <t>-7,13; 0,28</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,64; 140,81</t>
+          <t>80,65; 137,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>104,45; 171,64</t>
+          <t>107,09; 170,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,38; -3,02</t>
+          <t>-44,86; -2,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,22; 63,08</t>
+          <t>29,42; 63,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,2; 75,34</t>
+          <t>38,01; 74,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 14,2</t>
+          <t>-43,09; 15,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,09; 86,46</t>
+          <t>54,51; 85,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,24; 104,36</t>
+          <t>72,43; 104,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 2,59</t>
+          <t>-37,45; 1,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 9,42</t>
+          <t>1,41; 9,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,22</t>
+          <t>0,2; 7,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; -1,72</t>
+          <t>-7,26; -1,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,97</t>
+          <t>-1,7; 7,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,9</t>
+          <t>-2,44; 6,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -3,47</t>
+          <t>-10,45; -3,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,16</t>
+          <t>1,25; 7,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,87</t>
+          <t>0,6; 6,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -3,27</t>
+          <t>-7,3; -3,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,92; 174,34</t>
+          <t>16,67; 179,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 143,54</t>
+          <t>0,93; 140,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,9; -27,4</t>
+          <t>-78,71; -26,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 67,94</t>
+          <t>-12,32; 77,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 60,3</t>
+          <t>-17,09; 62,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,87; -34,02</t>
+          <t>-70,77; -33,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,43; 92,65</t>
+          <t>11,17; 92,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,82; 71,11</t>
+          <t>5,03; 74,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,97; -38,24</t>
+          <t>-68,82; -38,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,39; 14,67</t>
+          <t>10,39; 14,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,15; 17,62</t>
+          <t>13,05; 17,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -3,82</t>
+          <t>-8,62; -3,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,08</t>
+          <t>1,58; 5,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,24</t>
+          <t>5,72; 10,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,9; -5,39</t>
+          <t>-13,9; -4,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,6</t>
+          <t>6,39; 9,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,91; 13,08</t>
+          <t>9,9; 13,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -5,41</t>
+          <t>-10,55; -5,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>54,82; 85,48</t>
+          <t>54,16; 85,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>68,48; 104,2</t>
+          <t>67,56; 101,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,36; -22,25</t>
+          <t>-46,49; -22,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 22,94</t>
+          <t>5,61; 22,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,36; 38,32</t>
+          <t>19,22; 38,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,68; -18,7</t>
+          <t>-49,18; -16,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,97; 43,34</t>
+          <t>26,95; 43,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,97; 59,35</t>
+          <t>41,37; 58,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,41; -23,53</t>
+          <t>-44,89; -23,05</t>
         </is>
       </c>
     </row>
